--- a/FALEC-w1-core-web/WebContent/reportes/FALECPV-FacEmitidasDetalle.xlsx
+++ b/FALEC-w1-core-web/WebContent/reportes/FALECPV-FacEmitidasDetalle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/System/Volumes/Data/projects/gitrepositorio/FacturaElectronica-App/FALEC-w1-core-web/WebContent/reportes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDF8F4E-D03F-A148-A5F1-7EF890E63976}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65416BE5-791D-174A-8A8D-54776EE1D1A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="7580" windowWidth="42320" windowHeight="20280" xr2:uid="{E9788733-D204-D84A-A824-443E01B2DF94}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
-  <si>
-    <t>% IVA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>ESTABLECIMEINTO :</t>
   </si>
@@ -66,9 +63,6 @@
     <t>DESCUENTO</t>
   </si>
   <si>
-    <t>%ICE</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -133,6 +127,9 @@
   </si>
   <si>
     <t>SUBTOTAl</t>
+  </si>
+  <si>
+    <t>IVA</t>
   </si>
 </sst>
 </file>
@@ -227,14 +224,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -553,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32A76B9-2613-7147-BFF0-D21843D4C7F8}">
   <dimension ref="A2:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,93 +570,93 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:32" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -667,141 +664,141 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="O11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="X11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="AA11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y11" s="2" t="s">
+      <c r="AB11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Z11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB11" s="2" t="s">
+      <c r="AC11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AE11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AF11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
